--- a/ApolloQA/Data/RatingManual/GA/VA00042.StatedValueFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00042.StatedValueFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00042.StatedValueFactors" sheetId="1" r:id="Rd775c140600a415a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00042.StatedValueFactors" sheetId="1" r:id="Rf65ad1cddeb64677"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,16 +12,582 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
+        <x:v>Deductible</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Stated Value Lower Bound</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Stated Value Upper Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Stated Value Factor</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>Deductible_Stated Value Factor</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$40,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$45,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$50,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$55,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$55,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$60,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$60,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$65,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$65,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$70,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$70,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$75,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$75,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$80,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$85,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$85,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$90,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$90,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$95,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$95,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$100,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$110,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$110,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$120,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8537</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$120,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$130,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8654</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$130,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8754</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$140,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$150,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8840</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$150,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$160,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8915</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$160,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$170,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8980</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$170,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$180,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9039</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$180,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$190,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9091</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$190,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$200,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9137</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$200,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$225,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9208</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$225,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9292</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$250,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$275,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9359</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$275,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9415</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$300,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$325,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9462</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$325,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$350,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9502</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$350,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$375,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9536</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$375,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$400,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9566</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$400,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$425,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9592</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$425,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9615</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$450,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$475,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9636</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$475,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9655</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$600,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9694</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$600,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$700,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9741</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$700,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$800,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9776</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$800,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$900,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9802</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$900,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9823</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9832</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$0</x:v>
       </x:c>
@@ -29,10 +595,13 @@
         <x:v>$5,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.7927</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$5,001</x:v>
       </x:c>
@@ -40,10 +609,13 @@
         <x:v>$6,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.6593</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$6,001</x:v>
       </x:c>
@@ -51,10 +623,13 @@
         <x:v>$7,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.4236</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$7,001</x:v>
       </x:c>
@@ -62,10 +637,13 @@
         <x:v>$8,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.2232</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$8,001</x:v>
       </x:c>
@@ -73,10 +651,13 @@
         <x:v>$9,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2.0520</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$9,001</x:v>
       </x:c>
@@ -84,10 +665,13 @@
         <x:v>$10,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.9050</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$10,001</x:v>
       </x:c>
@@ -95,10 +679,13 @@
         <x:v>$11,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.7783</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$11,001</x:v>
       </x:c>
@@ -106,10 +693,13 @@
         <x:v>$12,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.6687</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$12,001</x:v>
       </x:c>
@@ -117,10 +707,13 @@
         <x:v>$13,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.5737</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$13,001</x:v>
       </x:c>
@@ -128,10 +721,13 @@
         <x:v>$14,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4910</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$14,001</x:v>
       </x:c>
@@ -139,10 +735,13 @@
         <x:v>$15,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4188</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$15,001</x:v>
       </x:c>
@@ -150,10 +749,13 @@
         <x:v>$16,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3557</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$16,001</x:v>
       </x:c>
@@ -161,10 +763,13 @@
         <x:v>$17,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.3005</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$17,001</x:v>
       </x:c>
@@ -172,10 +777,13 @@
         <x:v>$18,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2520</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$18,001</x:v>
       </x:c>
@@ -183,10 +791,13 @@
         <x:v>$19,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2095</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$19,001</x:v>
       </x:c>
@@ -194,10 +805,13 @@
         <x:v>$20,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1722</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$20,001</x:v>
       </x:c>
@@ -205,10 +819,13 @@
         <x:v>$21,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1395</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$21,001</x:v>
       </x:c>
@@ -216,10 +833,13 @@
         <x:v>$22,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1107</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$22,001</x:v>
       </x:c>
@@ -227,10 +847,13 @@
         <x:v>$23,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0855</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$23,001</x:v>
       </x:c>
@@ -238,10 +861,13 @@
         <x:v>$24,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0634</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$24,001</x:v>
       </x:c>
@@ -249,10 +875,13 @@
         <x:v>$25,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0441</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$25,001</x:v>
       </x:c>
@@ -260,10 +889,13 @@
         <x:v>$30,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$30,001</x:v>
       </x:c>
@@ -271,10 +903,13 @@
         <x:v>$35,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9594</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$35,001</x:v>
       </x:c>
@@ -282,10 +917,13 @@
         <x:v>$40,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9438</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$40,001</x:v>
       </x:c>
@@ -293,10 +931,13 @@
         <x:v>$45,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9436</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$45,001</x:v>
       </x:c>
@@ -304,10 +945,13 @@
         <x:v>$50,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9434</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$50,001</x:v>
       </x:c>
@@ -315,10 +959,13 @@
         <x:v>$55,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9432</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$55,001</x:v>
       </x:c>
@@ -326,10 +973,13 @@
         <x:v>$60,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9399</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$60,001</x:v>
       </x:c>
@@ -337,10 +987,13 @@
         <x:v>$65,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9313</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$65,001</x:v>
       </x:c>
@@ -348,10 +1001,13 @@
         <x:v>$70,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9172</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$70,001</x:v>
       </x:c>
@@ -359,10 +1015,13 @@
         <x:v>$75,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8988</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$75,001</x:v>
       </x:c>
@@ -370,10 +1029,13 @@
         <x:v>$80,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8776</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$80,001</x:v>
       </x:c>
@@ -381,10 +1043,13 @@
         <x:v>$85,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8556</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$85,001</x:v>
       </x:c>
@@ -392,10 +1057,13 @@
         <x:v>$90,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8346</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$90,001</x:v>
       </x:c>
@@ -403,10 +1071,13 @@
         <x:v>$95,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8163</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$95,001</x:v>
       </x:c>
@@ -414,10 +1085,13 @@
         <x:v>$100,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8017</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$100,001</x:v>
       </x:c>
@@ -425,10 +1099,13 @@
         <x:v>$110,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7888</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$110,001</x:v>
       </x:c>
@@ -436,10 +1113,13 @@
         <x:v>$120,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7836</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$120,001</x:v>
       </x:c>
@@ -447,10 +1127,13 @@
         <x:v>$130,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7784</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$130,001</x:v>
       </x:c>
@@ -458,10 +1141,13 @@
         <x:v>$140,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7732</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$140,001</x:v>
       </x:c>
@@ -469,10 +1155,13 @@
         <x:v>$150,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7681</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$150,001</x:v>
       </x:c>
@@ -480,10 +1169,13 @@
         <x:v>$160,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7630</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$160,001</x:v>
       </x:c>
@@ -491,10 +1183,13 @@
         <x:v>$170,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7580</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$170,001</x:v>
       </x:c>
@@ -502,10 +1197,13 @@
         <x:v>$180,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7183</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$180,001</x:v>
       </x:c>
@@ -513,10 +1211,13 @@
         <x:v>$190,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6828</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$190,001</x:v>
       </x:c>
@@ -524,10 +1225,13 @@
         <x:v>$200,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6510</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8059</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$200,001</x:v>
       </x:c>
@@ -535,10 +1239,13 @@
         <x:v>$225,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6004</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8219</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$225,001</x:v>
       </x:c>
@@ -546,10 +1253,13 @@
         <x:v>$250,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5399</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8406</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$250,001</x:v>
       </x:c>
@@ -557,10 +1267,13 @@
         <x:v>$275,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4909</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8558</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$275,001</x:v>
       </x:c>
@@ -568,10 +1281,13 @@
         <x:v>$300,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8683</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$300,001</x:v>
       </x:c>
@@ -579,10 +1295,13 @@
         <x:v>$325,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8789</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$325,001</x:v>
       </x:c>
@@ -590,10 +1309,13 @@
         <x:v>$350,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8879</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$350,001</x:v>
       </x:c>
@@ -601,10 +1323,13 @@
         <x:v>$375,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.8956</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$375,001</x:v>
       </x:c>
@@ -612,10 +1337,13 @@
         <x:v>$400,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9023</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$400,001</x:v>
       </x:c>
@@ -623,10 +1351,13 @@
         <x:v>$425,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9082</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$425,001</x:v>
       </x:c>
@@ -634,10 +1365,13 @@
         <x:v>$450,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9135</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$450,001</x:v>
       </x:c>
@@ -645,10 +1379,13 @@
         <x:v>$475,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9182</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$475,001</x:v>
       </x:c>
@@ -656,10 +1393,13 @@
         <x:v>$500,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9224</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$500,001</x:v>
       </x:c>
@@ -667,10 +1407,13 @@
         <x:v>$600,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9312</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$600,001</x:v>
       </x:c>
@@ -678,10 +1421,13 @@
         <x:v>$700,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9418</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$700,001</x:v>
       </x:c>
@@ -689,10 +1435,13 @@
         <x:v>$800,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9495</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$800,001</x:v>
       </x:c>
@@ -700,10 +1449,13 @@
         <x:v>$900,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9555</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$900,001</x:v>
       </x:c>
@@ -711,10 +1463,13 @@
         <x:v>$1,000,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9602</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>$1,000,001</x:v>
       </x:c>
@@ -722,7 +1477,7 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4578</x:v>
+        <x:v>0.9622</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
